--- a/output.xlsx
+++ b/output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -441,10 +441,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D5">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E6">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E7">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E10">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -588,15 +588,15 @@
         </is>
       </c>
       <c r="D11">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E11">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -605,19 +605,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D12">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E12">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -630,15 +630,15 @@
         </is>
       </c>
       <c r="D13">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -647,19 +647,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D14">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E14">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -672,15 +672,15 @@
         </is>
       </c>
       <c r="D15">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E15">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -693,15 +693,15 @@
         </is>
       </c>
       <c r="D16">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E16">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="D17">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E17">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -735,15 +735,15 @@
         </is>
       </c>
       <c r="D18">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E18">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -756,15 +756,15 @@
         </is>
       </c>
       <c r="D19">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -777,15 +777,15 @@
         </is>
       </c>
       <c r="D20">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -798,15 +798,15 @@
         </is>
       </c>
       <c r="D21">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E21">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -815,19 +815,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D22">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -840,15 +840,15 @@
         </is>
       </c>
       <c r="D23">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -861,15 +861,15 @@
         </is>
       </c>
       <c r="D24">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -878,19 +878,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D25">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -899,19 +899,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D26">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -924,15 +924,15 @@
         </is>
       </c>
       <c r="D27">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E27">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -945,15 +945,15 @@
         </is>
       </c>
       <c r="D28">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E28">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -962,19 +962,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D29">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -987,15 +987,15 @@
         </is>
       </c>
       <c r="D30">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1008,15 +1008,15 @@
         </is>
       </c>
       <c r="D31">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E31">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1025,19 +1025,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D32">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="D33">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1071,15 +1071,15 @@
         </is>
       </c>
       <c r="D34">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="D35">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1113,15 +1113,15 @@
         </is>
       </c>
       <c r="D36">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1134,15 +1134,15 @@
         </is>
       </c>
       <c r="D37">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1155,15 +1155,15 @@
         </is>
       </c>
       <c r="D38">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1176,15 +1176,15 @@
         </is>
       </c>
       <c r="D39">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E39">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1197,15 +1197,15 @@
         </is>
       </c>
       <c r="D40">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1214,19 +1214,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Crimson Shocker</t>
+          <t>Skul's Ghastly Touch</t>
         </is>
       </c>
       <c r="D41">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1239,15 +1239,15 @@
         </is>
       </c>
       <c r="D42">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E42">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1260,15 +1260,15 @@
         </is>
       </c>
       <c r="D43">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E43">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1281,15 +1281,15 @@
         </is>
       </c>
       <c r="D44">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E44">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1298,19 +1298,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D45">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E45">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1319,19 +1319,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D46">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E46">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1344,15 +1344,15 @@
         </is>
       </c>
       <c r="D47">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E47">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1365,15 +1365,15 @@
         </is>
       </c>
       <c r="D48">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1382,19 +1382,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D49">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E49">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1407,15 +1407,15 @@
         </is>
       </c>
       <c r="D50">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E50">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1428,15 +1428,15 @@
         </is>
       </c>
       <c r="D51">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E51">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1449,15 +1449,15 @@
         </is>
       </c>
       <c r="D52">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E52">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1470,15 +1470,15 @@
         </is>
       </c>
       <c r="D53">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E53">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D54">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E54">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1512,15 +1512,15 @@
         </is>
       </c>
       <c r="D55">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E55">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D56">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E56">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1554,15 +1554,15 @@
         </is>
       </c>
       <c r="D57">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E57">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1575,15 +1575,15 @@
         </is>
       </c>
       <c r="D58">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E58">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1592,19 +1592,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D59">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E59">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1617,15 +1617,15 @@
         </is>
       </c>
       <c r="D60">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E60">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1638,15 +1638,15 @@
         </is>
       </c>
       <c r="D61">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E61">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E62">
         <v>72</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E63">
         <v>72</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E64">
         <v>72</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D65">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E65">
         <v>72</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E66">
         <v>72</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D67">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E67">
         <v>72</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D68">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E68">
         <v>72</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E69">
         <v>72</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E70">
         <v>72</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1844,11 +1844,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Skul's Ghastly Touch</t>
+          <t>Crimson Shocker</t>
         </is>
       </c>
       <c r="D71">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E71">
         <v>72</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1865,19 +1865,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D72">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E72">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="D73">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E73">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1907,19 +1907,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Necromantic Band</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D74">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E74">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1928,19 +1928,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D75">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E75">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1949,19 +1949,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D76">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E76">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1974,15 +1974,15 @@
         </is>
       </c>
       <c r="D77">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E77">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1995,15 +1995,15 @@
         </is>
       </c>
       <c r="D78">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E78">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2012,19 +2012,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D79">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E79">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2037,15 +2037,15 @@
         </is>
       </c>
       <c r="D80">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E80">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2058,15 +2058,15 @@
         </is>
       </c>
       <c r="D81">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E81">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2075,19 +2075,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D82">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E82">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2100,15 +2100,15 @@
         </is>
       </c>
       <c r="D83">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E83">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2121,15 +2121,15 @@
         </is>
       </c>
       <c r="D84">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E84">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Necromantic Band</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D85">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E85">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2163,15 +2163,15 @@
         </is>
       </c>
       <c r="D86">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E86">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2184,15 +2184,15 @@
         </is>
       </c>
       <c r="D87">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2205,15 +2205,15 @@
         </is>
       </c>
       <c r="D88">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E88">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="D89">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E89">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2247,15 +2247,15 @@
         </is>
       </c>
       <c r="D90">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E90">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2264,19 +2264,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Crimson Shocker</t>
+          <t>Skul's Ghastly Touch</t>
         </is>
       </c>
       <c r="D91">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E91">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2289,15 +2289,15 @@
         </is>
       </c>
       <c r="D92">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E92">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2310,15 +2310,15 @@
         </is>
       </c>
       <c r="D93">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E93">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2331,15 +2331,15 @@
         </is>
       </c>
       <c r="D94">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E94">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2348,19 +2348,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D95">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E95">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2369,19 +2369,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D96">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E96">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2394,15 +2394,15 @@
         </is>
       </c>
       <c r="D97">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E97">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2415,15 +2415,15 @@
         </is>
       </c>
       <c r="D98">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E98">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2432,19 +2432,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D99">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E99">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2457,15 +2457,15 @@
         </is>
       </c>
       <c r="D100">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E100">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2474,19 +2474,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Crimson Shocker</t>
+          <t>Skul's Ghastly Touch</t>
         </is>
       </c>
       <c r="D101">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E101">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2499,15 +2499,15 @@
         </is>
       </c>
       <c r="D102">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E102">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2520,15 +2520,15 @@
         </is>
       </c>
       <c r="D103">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E103">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2541,15 +2541,15 @@
         </is>
       </c>
       <c r="D104">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E104">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2558,19 +2558,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D105">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E105">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D106">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E106">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2604,15 +2604,15 @@
         </is>
       </c>
       <c r="D107">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E107">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2625,15 +2625,15 @@
         </is>
       </c>
       <c r="D108">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E108">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2642,19 +2642,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D109">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E109">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2667,15 +2667,15 @@
         </is>
       </c>
       <c r="D110">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E110">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2688,15 +2688,15 @@
         </is>
       </c>
       <c r="D111">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E111">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2709,15 +2709,15 @@
         </is>
       </c>
       <c r="D112">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E112">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2730,15 +2730,15 @@
         </is>
       </c>
       <c r="D113">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E113">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2747,19 +2747,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D114">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E114">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2772,15 +2772,15 @@
         </is>
       </c>
       <c r="D115">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E115">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2789,19 +2789,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D116">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E116">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2814,15 +2814,15 @@
         </is>
       </c>
       <c r="D117">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E117">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2835,15 +2835,15 @@
         </is>
       </c>
       <c r="D118">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E118">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2852,19 +2852,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D119">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E119">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2877,15 +2877,15 @@
         </is>
       </c>
       <c r="D120">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E120">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="D121">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E121">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="D122">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E122">
         <v>70</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D123">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E123">
         <v>70</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="D124">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E124">
         <v>70</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D125">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E125">
         <v>70</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D126">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E126">
         <v>70</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E127">
         <v>70</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="D128">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="D129">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E129">
         <v>70</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="D130">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E130">
         <v>70</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Skul's Ghastly Touch</t>
+          <t>Crimson Shocker</t>
         </is>
       </c>
       <c r="D131">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E131">
         <v>70</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3129,15 +3129,15 @@
         </is>
       </c>
       <c r="D132">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E132">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3150,15 +3150,15 @@
         </is>
       </c>
       <c r="D133">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E133">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3167,19 +3167,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D134">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E134">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3188,19 +3188,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D135">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E135">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3213,15 +3213,15 @@
         </is>
       </c>
       <c r="D136">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E136">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="D137">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E137">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3255,15 +3255,15 @@
         </is>
       </c>
       <c r="D138">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E138">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3276,15 +3276,15 @@
         </is>
       </c>
       <c r="D139">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E139">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3297,15 +3297,15 @@
         </is>
       </c>
       <c r="D140">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E140">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3314,19 +3314,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Skul's Ghastly Touch</t>
+          <t>Crimson Shocker</t>
         </is>
       </c>
       <c r="D141">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E141">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3335,19 +3335,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D142">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E142">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3360,15 +3360,15 @@
         </is>
       </c>
       <c r="D143">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E143">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3381,15 +3381,15 @@
         </is>
       </c>
       <c r="D144">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E144">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3398,19 +3398,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D145">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E145">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3419,19 +3419,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D146">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E146">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3444,15 +3444,15 @@
         </is>
       </c>
       <c r="D147">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E147">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3465,15 +3465,15 @@
         </is>
       </c>
       <c r="D148">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E148">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3482,19 +3482,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D149">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3507,15 +3507,15 @@
         </is>
       </c>
       <c r="D150">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3528,850 +3528,10 @@
         </is>
       </c>
       <c r="D151">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E151">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>8</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Brilliant Chromatic Cloak</t>
-        </is>
-      </c>
-      <c r="D152">
-        <v>328</v>
-      </c>
-      <c r="E152">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>8</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D153">
-        <v>328</v>
-      </c>
-      <c r="E153">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>8</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D154">
-        <v>328</v>
-      </c>
-      <c r="E154">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>8</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D155">
-        <v>328</v>
-      </c>
-      <c r="E155">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>8</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Hands of Prophecy</t>
-        </is>
-      </c>
-      <c r="D156">
-        <v>328</v>
-      </c>
-      <c r="E156">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>8</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D157">
-        <v>328</v>
-      </c>
-      <c r="E157">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>8</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D158">
-        <v>328</v>
-      </c>
-      <c r="E158">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>8</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Mantle</t>
-        </is>
-      </c>
-      <c r="D159">
-        <v>328</v>
-      </c>
-      <c r="E159">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>8</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D160">
-        <v>328</v>
-      </c>
-      <c r="E160">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>8</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D161">
-        <v>328</v>
-      </c>
-      <c r="E161">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>9</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Brilliant Chromatic Cloak</t>
-        </is>
-      </c>
-      <c r="D162">
-        <v>328</v>
-      </c>
-      <c r="E162">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>9</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D163">
-        <v>328</v>
-      </c>
-      <c r="E163">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>9</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D164">
-        <v>328</v>
-      </c>
-      <c r="E164">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>9</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D165">
-        <v>328</v>
-      </c>
-      <c r="E165">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>9</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Hands of Prophecy</t>
-        </is>
-      </c>
-      <c r="D166">
-        <v>328</v>
-      </c>
-      <c r="E166">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>9</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D167">
-        <v>328</v>
-      </c>
-      <c r="E167">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>9</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D168">
-        <v>328</v>
-      </c>
-      <c r="E168">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169">
-        <v>9</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Mantle</t>
-        </is>
-      </c>
-      <c r="D169">
-        <v>328</v>
-      </c>
-      <c r="E169">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170">
-        <v>9</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D170">
-        <v>328</v>
-      </c>
-      <c r="E170">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171">
-        <v>9</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D171">
-        <v>328</v>
-      </c>
-      <c r="E171">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172">
-        <v>10</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Drape of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D172">
-        <v>327</v>
-      </c>
-      <c r="E172">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173">
-        <v>10</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D173">
-        <v>327</v>
-      </c>
-      <c r="E173">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174">
-        <v>10</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D174">
-        <v>327</v>
-      </c>
-      <c r="E174">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175">
-        <v>10</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D175">
-        <v>327</v>
-      </c>
-      <c r="E175">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176">
-        <v>10</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Gloves</t>
-        </is>
-      </c>
-      <c r="D176">
-        <v>327</v>
-      </c>
-      <c r="E176">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177">
-        <v>10</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D177">
-        <v>327</v>
-      </c>
-      <c r="E177">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178">
-        <v>10</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D178">
-        <v>327</v>
-      </c>
-      <c r="E178">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179">
-        <v>10</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Shoulderpads of Prophecy</t>
-        </is>
-      </c>
-      <c r="D179">
-        <v>327</v>
-      </c>
-      <c r="E179">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180">
-        <v>10</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D180">
-        <v>327</v>
-      </c>
-      <c r="E180">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181">
-        <v>10</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D181">
-        <v>327</v>
-      </c>
-      <c r="E181">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182">
-        <v>10</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Drape of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D182">
-        <v>327</v>
-      </c>
-      <c r="E182">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183">
-        <v>10</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D183">
-        <v>327</v>
-      </c>
-      <c r="E183">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184">
-        <v>10</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D184">
-        <v>327</v>
-      </c>
-      <c r="E184">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185">
-        <v>10</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D185">
-        <v>327</v>
-      </c>
-      <c r="E185">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186">
-        <v>10</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Gloves</t>
-        </is>
-      </c>
-      <c r="D186">
-        <v>327</v>
-      </c>
-      <c r="E186">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187">
-        <v>10</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D187">
-        <v>327</v>
-      </c>
-      <c r="E187">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188">
-        <v>10</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D188">
-        <v>327</v>
-      </c>
-      <c r="E188">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189">
-        <v>10</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Shoulderpads of Prophecy</t>
-        </is>
-      </c>
-      <c r="D189">
-        <v>327</v>
-      </c>
-      <c r="E189">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190">
-        <v>10</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D190">
-        <v>327</v>
-      </c>
-      <c r="E190">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191">
-        <v>10</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D191">
-        <v>327</v>
-      </c>
-      <c r="E191">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E2">
         <v>62</v>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E3">
         <v>62</v>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E4">
         <v>62</v>
@@ -458,11 +458,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D5">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E5">
         <v>62</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E6">
         <v>62</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E7">
         <v>62</v>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E8">
         <v>62</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E9">
         <v>62</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E10">
         <v>62</v>
@@ -584,11 +584,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Crimson Shocker</t>
+          <t>Skul's Ghastly Touch</t>
         </is>
       </c>
       <c r="D11">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E11">
         <v>62</v>
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D12">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -668,14 +668,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D15">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22">
         <v>62</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23">
         <v>62</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E24">
         <v>62</v>
@@ -878,11 +878,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D25">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25">
         <v>62</v>
@@ -899,11 +899,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D26">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E26">
         <v>62</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E27">
         <v>62</v>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E28">
         <v>62</v>
@@ -962,11 +962,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D29">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29">
         <v>62</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30">
         <v>62</v>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E31">
         <v>62</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1025,19 +1025,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D32">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="D33">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E33">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D34">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1088,19 +1088,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D35">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1113,15 +1113,15 @@
         </is>
       </c>
       <c r="D36">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E36">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1134,15 +1134,15 @@
         </is>
       </c>
       <c r="D37">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1155,15 +1155,15 @@
         </is>
       </c>
       <c r="D38">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E38">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1176,15 +1176,15 @@
         </is>
       </c>
       <c r="D39">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1197,15 +1197,15 @@
         </is>
       </c>
       <c r="D40">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="D41">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E42">
         <v>62</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E44">
         <v>62</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Necromantic Band</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D45">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E45">
         <v>62</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D46">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E46">
         <v>62</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E47">
         <v>62</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E48">
         <v>62</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D49">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E49">
         <v>62</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E50">
         <v>62</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1424,11 +1424,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Crimson Shocker</t>
+          <t>Skul's Ghastly Touch</t>
         </is>
       </c>
       <c r="D51">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E51">
         <v>62</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1445,19 +1445,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D52">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1470,15 +1470,15 @@
         </is>
       </c>
       <c r="D53">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Necromantic Band</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D54">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E54">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1508,19 +1508,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D55">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1533,15 +1533,15 @@
         </is>
       </c>
       <c r="D56">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1554,15 +1554,15 @@
         </is>
       </c>
       <c r="D57">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E57">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1575,15 +1575,15 @@
         </is>
       </c>
       <c r="D58">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E58">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1596,15 +1596,15 @@
         </is>
       </c>
       <c r="D59">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E59">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1617,15 +1617,15 @@
         </is>
       </c>
       <c r="D60">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E60">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1638,15 +1638,15 @@
         </is>
       </c>
       <c r="D61">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E61">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Drape of the Fire Lord</t>
+          <t>Brilliant Chromatic Cloak</t>
         </is>
       </c>
       <c r="D62">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E62">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1680,15 +1680,15 @@
         </is>
       </c>
       <c r="D63">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E63">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1697,19 +1697,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D64">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E64">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1718,19 +1718,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D65">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E65">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1743,15 +1743,15 @@
         </is>
       </c>
       <c r="D66">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E66">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1764,15 +1764,15 @@
         </is>
       </c>
       <c r="D67">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E67">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1785,15 +1785,15 @@
         </is>
       </c>
       <c r="D68">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E68">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1806,15 +1806,15 @@
         </is>
       </c>
       <c r="D69">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E69">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1827,15 +1827,15 @@
         </is>
       </c>
       <c r="D70">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E70">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1848,15 +1848,15 @@
         </is>
       </c>
       <c r="D71">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E71">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1865,19 +1865,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D72">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E72">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="D73">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1911,15 +1911,15 @@
         </is>
       </c>
       <c r="D74">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1928,19 +1928,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D75">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1953,15 +1953,15 @@
         </is>
       </c>
       <c r="D76">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1974,15 +1974,15 @@
         </is>
       </c>
       <c r="D77">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1995,15 +1995,15 @@
         </is>
       </c>
       <c r="D78">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2016,15 +2016,15 @@
         </is>
       </c>
       <c r="D79">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E79">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2037,15 +2037,15 @@
         </is>
       </c>
       <c r="D80">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E80">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2058,15 +2058,15 @@
         </is>
       </c>
       <c r="D81">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E81">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2075,19 +2075,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D82">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E82">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2100,15 +2100,15 @@
         </is>
       </c>
       <c r="D83">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E83">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Ring of Spell Power</t>
         </is>
       </c>
       <c r="D84">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D85">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Hands of Prophecy</t>
+          <t>Fine Flarecore Gloves</t>
         </is>
       </c>
       <c r="D86">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2184,15 +2184,15 @@
         </is>
       </c>
       <c r="D87">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E87">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2205,15 +2205,15 @@
         </is>
       </c>
       <c r="D88">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E88">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2222,19 +2222,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fine Flarecore Mantle</t>
+          <t>Shoulderpads of Prophecy</t>
         </is>
       </c>
       <c r="D89">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2247,15 +2247,15 @@
         </is>
       </c>
       <c r="D90">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E90">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2264,19 +2264,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Skul's Ghastly Touch</t>
+          <t>Crimson Shocker</t>
         </is>
       </c>
       <c r="D91">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E92">
         <v>62</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E93">
         <v>62</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dragonslayer's Signet</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D94">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E94">
         <v>62</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D95">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E95">
         <v>62</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fine Flarecore Gloves</t>
+          <t>Hands of Prophecy</t>
         </is>
       </c>
       <c r="D96">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E96">
         <v>62</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E97">
         <v>62</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="D98">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E98">
         <v>62</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Shoulderpads of Prophecy</t>
+          <t>Fine Flarecore Mantle</t>
         </is>
       </c>
       <c r="D99">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E99">
         <v>62</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="D100">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E100">
         <v>62</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E101">
         <v>62</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2495,19 +2495,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brilliant Chromatic Cloak</t>
+          <t>Drape of the Fire Lord</t>
         </is>
       </c>
       <c r="D102">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E102">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2520,15 +2520,15 @@
         </is>
       </c>
       <c r="D103">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E103">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2537,19 +2537,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ring of Spell Power</t>
+          <t>Necromantic Band</t>
         </is>
       </c>
       <c r="D104">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E104">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2558,19 +2558,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Necromantic Band</t>
+          <t>Dragonslayer's Signet</t>
         </is>
       </c>
       <c r="D105">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E105">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2583,15 +2583,15 @@
         </is>
       </c>
       <c r="D106">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E106">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2604,15 +2604,15 @@
         </is>
       </c>
       <c r="D107">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E107">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2625,15 +2625,15 @@
         </is>
       </c>
       <c r="D108">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E108">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2646,15 +2646,15 @@
         </is>
       </c>
       <c r="D109">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E109">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2667,15 +2667,15 @@
         </is>
       </c>
       <c r="D110">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E110">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2688,850 +2688,10 @@
         </is>
       </c>
       <c r="D111">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E111">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>8</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Brilliant Chromatic Cloak</t>
-        </is>
-      </c>
-      <c r="D112">
-        <v>333</v>
-      </c>
-      <c r="E112">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>8</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D113">
-        <v>333</v>
-      </c>
-      <c r="E113">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>8</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D114">
-        <v>333</v>
-      </c>
-      <c r="E114">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>8</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Ring of Spell Power</t>
-        </is>
-      </c>
-      <c r="D115">
-        <v>333</v>
-      </c>
-      <c r="E115">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>8</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Hands of Prophecy</t>
-        </is>
-      </c>
-      <c r="D116">
-        <v>333</v>
-      </c>
-      <c r="E116">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>8</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D117">
-        <v>333</v>
-      </c>
-      <c r="E117">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>8</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D118">
-        <v>333</v>
-      </c>
-      <c r="E118">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>8</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Mantle</t>
-        </is>
-      </c>
-      <c r="D119">
-        <v>333</v>
-      </c>
-      <c r="E119">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>8</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D120">
-        <v>333</v>
-      </c>
-      <c r="E120">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>8</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D121">
-        <v>333</v>
-      </c>
-      <c r="E121">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>9</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Brilliant Chromatic Cloak</t>
-        </is>
-      </c>
-      <c r="D122">
-        <v>333</v>
-      </c>
-      <c r="E122">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>9</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D123">
-        <v>333</v>
-      </c>
-      <c r="E123">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>9</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Dragonslayer's Signet</t>
-        </is>
-      </c>
-      <c r="D124">
-        <v>333</v>
-      </c>
-      <c r="E124">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>9</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Ring of Spell Power</t>
-        </is>
-      </c>
-      <c r="D125">
-        <v>333</v>
-      </c>
-      <c r="E125">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>9</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Hands of Prophecy</t>
-        </is>
-      </c>
-      <c r="D126">
-        <v>333</v>
-      </c>
-      <c r="E126">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>9</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D127">
-        <v>333</v>
-      </c>
-      <c r="E127">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>9</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D128">
-        <v>333</v>
-      </c>
-      <c r="E128">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>9</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Mantle</t>
-        </is>
-      </c>
-      <c r="D129">
-        <v>333</v>
-      </c>
-      <c r="E129">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>9</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D130">
-        <v>333</v>
-      </c>
-      <c r="E130">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>9</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D131">
-        <v>333</v>
-      </c>
-      <c r="E131">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>10</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Drape of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D132">
-        <v>332</v>
-      </c>
-      <c r="E132">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>10</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D133">
-        <v>332</v>
-      </c>
-      <c r="E133">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>10</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Ring of Spell Power</t>
-        </is>
-      </c>
-      <c r="D134">
-        <v>332</v>
-      </c>
-      <c r="E134">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>10</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D135">
-        <v>332</v>
-      </c>
-      <c r="E135">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>10</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Gloves</t>
-        </is>
-      </c>
-      <c r="D136">
-        <v>332</v>
-      </c>
-      <c r="E136">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>10</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D137">
-        <v>332</v>
-      </c>
-      <c r="E137">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>10</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D138">
-        <v>332</v>
-      </c>
-      <c r="E138">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>10</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Shoulderpads of Prophecy</t>
-        </is>
-      </c>
-      <c r="D139">
-        <v>332</v>
-      </c>
-      <c r="E139">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>10</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D140">
-        <v>332</v>
-      </c>
-      <c r="E140">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>10</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D141">
-        <v>332</v>
-      </c>
-      <c r="E141">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>10</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Drape of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D142">
-        <v>332</v>
-      </c>
-      <c r="E142">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>10</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Garments of Prophecy</t>
-        </is>
-      </c>
-      <c r="D143">
-        <v>332</v>
-      </c>
-      <c r="E143">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>10</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Finger1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Necromantic Band</t>
-        </is>
-      </c>
-      <c r="D144">
-        <v>332</v>
-      </c>
-      <c r="E144">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>10</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Finger2</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Ring of Spell Power</t>
-        </is>
-      </c>
-      <c r="D145">
-        <v>332</v>
-      </c>
-      <c r="E145">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>10</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Hands</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Fine Flarecore Gloves</t>
-        </is>
-      </c>
-      <c r="D146">
-        <v>332</v>
-      </c>
-      <c r="E146">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>10</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Legs</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Fel Infused Leggings</t>
-        </is>
-      </c>
-      <c r="D147">
-        <v>332</v>
-      </c>
-      <c r="E147">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>10</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Choker of the Fire Lord</t>
-        </is>
-      </c>
-      <c r="D148">
-        <v>332</v>
-      </c>
-      <c r="E148">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>10</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Shoulderpads of Prophecy</t>
-        </is>
-      </c>
-      <c r="D149">
-        <v>332</v>
-      </c>
-      <c r="E149">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>10</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Trinket</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Briarwood Reed</t>
-        </is>
-      </c>
-      <c r="D150">
-        <v>332</v>
-      </c>
-      <c r="E150">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>10</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Wand</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Crimson Shocker</t>
-        </is>
-      </c>
-      <c r="D151">
-        <v>332</v>
-      </c>
-      <c r="E151">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
